--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2965662.538521222</v>
+        <v>2963118.729014139</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.4031397636152</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.6326967715755</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.0982694250163</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482962</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>13.66618497917558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>260.236357282454</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>259.6326967715748</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>115.3066195468971</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>57.55586851935881</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0477154881478</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>181.2126394271916</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>219.1455308645131</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288514</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614498</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663953</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.06308666748002</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>107.4985065573575</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206802</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183392</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92847288553371</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016376</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.733841663478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892427993</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417088</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3715,19 +3715,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716689</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7770495552874</v>
+        <v>412.7875053134362</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>399.8236925399918</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515915</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030614</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991327</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358425</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601764</v>
       </c>
       <c r="Q2" t="n">
         <v>1054.855520006025</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946899</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298179</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298179</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="X2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626397</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626397</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.3918921960506</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="C3" t="n">
-        <v>250.9388629149236</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="D3" t="n">
-        <v>102.0044532536723</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957471</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263953</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>648.3904695545991</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560905</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098651</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413028</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781163</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>481.2742972781163</v>
       </c>
       <c r="W3" t="n">
-        <v>801.3675279810725</v>
+        <v>227.0369405499146</v>
       </c>
       <c r="X3" t="n">
-        <v>801.3675279810725</v>
+        <v>227.0369405499146</v>
       </c>
       <c r="Y3" t="n">
-        <v>593.6072292161186</v>
+        <v>21.09711040012051</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>912.2587645890154</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>743.3225816611085</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="D4" t="n">
-        <v>593.2059422487728</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="E4" t="n">
-        <v>445.2928486663797</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K4" t="n">
-        <v>126.413376528795</v>
+        <v>126.4133765287953</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.7083726551016</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375343</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227053</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075549</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816804</v>
       </c>
       <c r="Q4" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407084</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>719.2759572512198</v>
       </c>
       <c r="T4" t="n">
-        <v>912.2587645890154</v>
+        <v>719.2759572512198</v>
       </c>
       <c r="U4" t="n">
-        <v>912.2587645890154</v>
+        <v>452.8983006840416</v>
       </c>
       <c r="V4" t="n">
-        <v>912.2587645890154</v>
+        <v>452.8983006840416</v>
       </c>
       <c r="W4" t="n">
-        <v>912.2587645890154</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>912.2587645890154</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>912.2587645890154</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>566.8162363079208</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.869123378691</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4644,19 +4644,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>713.6562631339675</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>996.7182790773793</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>996.7182790773793</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>996.7182790773793</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>996.7182790773793</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>742.4809223491777</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>534.6294221436449</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.869123378691</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.0332933280274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>820.4638881998146</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4743373017973</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.6817581582671</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2173.962920278679</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="C8" t="n">
-        <v>1805.000403338267</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="D8" t="n">
-        <v>1446.734704731517</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="E8" t="n">
-        <v>1060.946452133273</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="F8" t="n">
-        <v>649.9605473436652</v>
+        <v>366.9512895589263</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2543253353324</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685602</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685602</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467187</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607457</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045986</v>
+        <v>795.186282904592</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995235</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209595</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940609</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550213</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661181</v>
+        <v>2540.564622661162</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342801</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342801</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342801</v>
+        <v>2351.810676439054</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342801</v>
+        <v>2098.229497964624</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342801</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342801</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>2560.562760342801</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>2560.562760342801</v>
+        <v>760.4966303722515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010959</v>
+        <v>929.5097208010759</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199689</v>
+        <v>755.0566915199489</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587177</v>
+        <v>606.1222818586976</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532622</v>
+        <v>446.8848268532421</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801472</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763353</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530447172</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685602</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394784</v>
+        <v>238.3188829507234</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330318</v>
+        <v>422.9158793018224</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665149</v>
+        <v>1056.655162486661</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140818</v>
+        <v>1419.721630960962</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613389</v>
+        <v>1806.806033433531</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.04335660078</v>
+        <v>2138.692843420919</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030406</v>
+        <v>2421.055229888879</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442643</v>
+        <v>2536.272628442624</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342801</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251717</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685365</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751595</v>
+        <v>2002.726321751575</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519852</v>
+        <v>1767.574213519832</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791651</v>
+        <v>1513.336856791631</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586118</v>
+        <v>1305.485356586098</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821164</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.236892362735</v>
+        <v>476.1390772876028</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348281</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224924</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="E10" t="n">
-        <v>142.1840700224924</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685602</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685602</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685602</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685602</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380232</v>
+        <v>76.63468308380138</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676584</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368946</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904072</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101617</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931096</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616506</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547737</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547737</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547737</v>
+        <v>1533.156055412619</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547737</v>
+        <v>1310.174753887024</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.76914547737</v>
+        <v>1021.056380381666</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271483</v>
+        <v>766.3718921757794</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234522</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363365049</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.8853571929748</v>
+        <v>657.7875421178426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468466</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589156</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143763</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861247</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C13" t="n">
-        <v>390.8232499582178</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458821</v>
+        <v>363.7369613277382</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458821</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="F13" t="n">
-        <v>93.8166630479718</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="G13" t="n">
-        <v>93.8166630479718</v>
+        <v>215.8238677453451</v>
       </c>
       <c r="H13" t="n">
-        <v>93.8166630479718</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.823211978709</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598946</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163645</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5258,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797182</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687908</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845492</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.840175011101</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400694</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121625</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121625</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121625</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121625</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270425</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648817</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138393</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703091</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797182</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797182</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,16 +5777,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5795,7 +5795,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>114.9565346495158</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,22 +7072,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,16 +7679,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594746</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167823</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127282</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446529</v>
+        <v>106.7437663446532</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915882</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211334</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581674</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084417</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.68386670538911</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.77341651439</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44677382458804</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194396</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>144.5956654067404</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.931091227</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737410.9310912273</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365051</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
@@ -26332,25 +26332,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580836</v>
+        <v>390680.0076580783</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606881</v>
+        <v>507909.2320606938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101876</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954677</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447197</v>
+        <v>141668.8507447212</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680598</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680598</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680595</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680578</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680584</v>
@@ -26473,10 +26473,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567932</v>
+        <v>92902.86757567893</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297372.3446739959</v>
+        <v>-297372.3446739957</v>
       </c>
       <c r="C6" t="n">
-        <v>382715.6359171972</v>
+        <v>382715.6359171973</v>
       </c>
       <c r="D6" t="n">
-        <v>72633.77840615832</v>
+        <v>72633.77840616221</v>
       </c>
       <c r="E6" t="n">
-        <v>65265.87163510409</v>
+        <v>65231.13370966262</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957923</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="G6" t="n">
-        <v>573175.1036957924</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.1036957927</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.1036957927</v>
+        <v>573140.365770357</v>
       </c>
       <c r="J6" t="n">
-        <v>504175.9492766787</v>
+        <v>504141.2113512431</v>
       </c>
       <c r="K6" t="n">
-        <v>573175.1036957927</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="L6" t="n">
-        <v>477904.865904774</v>
+        <v>477870.1279793393</v>
       </c>
       <c r="M6" t="n">
-        <v>440457.1280003252</v>
+        <v>440422.390074888</v>
       </c>
       <c r="N6" t="n">
-        <v>573175.1036957926</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="O6" t="n">
-        <v>573175.1036957928</v>
+        <v>573140.365770357</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957927</v>
+        <v>573140.3657703571</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627867</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900857003</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933084</v>
+        <v>319.647445793304</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788864</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841941</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139472</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841941</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139472</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841941</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139472</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769253</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862854</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>77.54681103038465</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929008205</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>209.5481609003903</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117111</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>26.28664105413696</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>162.4853592126452</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>89.59406689283996</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081375</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.47528284844319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>119.8208347931087</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425464977</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348403</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6067276056218</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164532465</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164512556</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>55.35796135545122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430993</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.586959164095</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>179.0244917792335</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28290,13 +28290,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.815998142204466e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.005536702466528e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.686054137733396e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.955760354050026e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885572</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546687</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157561</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972546</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763209</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354954</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359966</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525103</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307919</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983042</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542145</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886476</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140505</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994416</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508457</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436937</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035148</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026299</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079433</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502181</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571298</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617187</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152234</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519103</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947605</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463712</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204794</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366414</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133968</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419038</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752566</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484001</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.634225184159</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954064</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772526</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490133</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023136</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046236</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046264</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708739</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939808</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307445</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658789</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794278</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865037</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639563</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>456.345901722661</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456605</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966409</v>
+        <v>106.3800667966412</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705683</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313404</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655081</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087239</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559193</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091051</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430347</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797651</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234389</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.76854144709336</v>
+        <v>188.9976037816846</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884377</v>
+        <v>186.4616124758576</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772556</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065397004</v>
+        <v>366.733806539698</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318902</v>
+        <v>390.9943459318878</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074658</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804303</v>
+        <v>285.2145317858175</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961988</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783623</v>
+        <v>24.53548676783566</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873362</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513698</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093295</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641541</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254646</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186661</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357674</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228641</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962609</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572999012</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>318.504462748302</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
